--- a/medicine/Mort/Cimetière_Notre-Dame-des-Neiges/Cimetière_Notre-Dame-des-Neiges.xlsx
+++ b/medicine/Mort/Cimetière_Notre-Dame-des-Neiges/Cimetière_Notre-Dame-des-Neiges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Notre-Dame-des-Neiges</t>
+          <t>Cimetière_Notre-Dame-des-Neiges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Notre-Dame-des-Neiges est un cimetière de 343 acres (1,39 km2) situé dans le quartier Côte-des-Neiges à Montréal, au Québec. Fondé en 1854, il est le cimetière de la paroisse Notre-Dame de Montréal. Les terres du cimetière bordent une partie du chemin de la Côte-des-Neiges et continuent sur les pentes du mont Royal, principalement sur sa face nord-ouest. Il dispose également de quelques entrées. Il partage une partie de la montagne avec le cimetière Mont-Royal, originellement protestant et majoritairement anglophone.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Notre-Dame-des-Neiges</t>
+          <t>Cimetière_Notre-Dame-des-Neiges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimetière catholique ouvert aux défunts de toutes confessions, Notre-Dame-des-Neiges est le plus grand cimetière du Canada. Son « mausolée La Pietà » contient une reproduction de grandeur nature de la Pietà de Michel-Ange sculpture située dans la basilique Saint-Pierre au Vatican
 Le nom du cimetière vient de la légende de Notre-Dame des Neiges, en 352, lorsqu'un aristocrate nommé Jean et sa femme eurent un songe communiqué par la Vierge Marie leur demandant de construire une chapelle. La basilique Sainte-Marie-Majeure de Rome fut construite par la suite.
-Il est reconnu comme un lieu historique national du Canada en 1998[1].
-L'école de fouilles archéologiques de l'Université de Montréal, dirigée par le professeur Brad Loewen, effectue ses premières fouilles à cet endroit en 2015. Le site fouillé est la grande pelouse à l'entrée du cimetière, à l'emplacement de l'ancienne ferme Beaubien[2].
-Ce cimetière a remplacé le Cimetière du faubourg St-Antoine qui était devenu trop étroit pour les besoins de la population[3].
+Il est reconnu comme un lieu historique national du Canada en 1998.
+L'école de fouilles archéologiques de l'Université de Montréal, dirigée par le professeur Brad Loewen, effectue ses premières fouilles à cet endroit en 2015. Le site fouillé est la grande pelouse à l'entrée du cimetière, à l'emplacement de l'ancienne ferme Beaubien.
+Ce cimetière a remplacé le Cimetière du faubourg St-Antoine qui était devenu trop étroit pour les besoins de la population.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Notre-Dame-des-Neiges</t>
+          <t>Cimetière_Notre-Dame-des-Neiges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Personnalités célèbres enterrées dans ce cimetière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Historiquement, il fut principalement lieu de sépulture des Canadiens français, ceux-ci ayant longtemps été très majoritairement de foi catholique. Le cimetière est le dernier lieu de repos pour plusieurs anciens maires de la ville de Montréal et de plusieurs anciens premiers ministres du Québec ainsi que d'autres personnalités notoires, incluant :
 René Angélil (1942-2016), Agent artistique, époux de Céline Dion
